--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,48 +43,48 @@
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
@@ -94,87 +94,87 @@
     <t>ensure</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>sure</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,7 +550,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
         <v>23</v>
@@ -608,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -650,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -658,37 +661,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.96875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7207792207792207</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C6">
         <v>111</v>
@@ -776,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>405</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3175965665236051</v>
+        <v>0.0992063492063492</v>
       </c>
       <c r="C8">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -904,142 +907,70 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>63</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>0.8392857142857143</v>
       </c>
       <c r="L9">
+        <v>94</v>
+      </c>
+      <c r="M9">
+        <v>94</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L10">
+        <v>68</v>
+      </c>
+      <c r="M10">
+        <v>68</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L11">
         <v>47</v>
       </c>
-      <c r="M9">
+      <c r="M11">
         <v>47</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.25</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>94</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.825</v>
-      </c>
-      <c r="L11">
-        <v>33</v>
-      </c>
-      <c r="M11">
-        <v>33</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1050,21 +981,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,21 +1007,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7962962962962963</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L13">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1102,21 +1033,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1128,21 +1059,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1154,21 +1085,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7421875</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1180,21 +1111,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7586206896551724</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1211,16 +1142,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7450980392156863</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1232,21 +1163,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.72</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1258,21 +1189,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.7058823529411765</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1284,21 +1215,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.684931506849315</v>
+        <v>0.65625</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1310,47 +1241,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L22">
+        <v>41</v>
+      </c>
+      <c r="M22">
+        <v>41</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>22</v>
-      </c>
-      <c r="M22">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6538461538461539</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1362,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6363636363636364</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1388,21 +1319,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5789473684210527</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1414,21 +1345,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5666666666666667</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1440,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5600000000000001</v>
+        <v>0.5143603133159269</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1466,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.55</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1492,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5138888888888888</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L29">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="M29">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1518,21 +1449,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>70</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L30">
         <v>45</v>
       </c>
-      <c r="K30">
-        <v>0.5116279069767442</v>
-      </c>
-      <c r="L30">
-        <v>66</v>
-      </c>
       <c r="M30">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1544,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5070422535211268</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L31">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1570,21 +1501,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4891304347826087</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1596,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4857142857142857</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1622,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.4583333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="L34">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1648,21 +1579,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.4285714285714285</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L35">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1674,21 +1605,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.3125</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1700,21 +1631,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.04390243902439024</v>
+        <v>0.3125</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1726,21 +1657,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>392</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.02347417840375587</v>
+        <v>0.05257270693512305</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1752,21 +1683,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>416</v>
+        <v>847</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.01157613535173642</v>
+        <v>0.05023923444976076</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1778,33 +1709,137 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1110</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>0.04567307692307692</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <v>19</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41">
+        <v>0.02996670366259711</v>
+      </c>
+      <c r="L41">
+        <v>27</v>
+      </c>
+      <c r="M41">
+        <v>27</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>0.01308411214953271</v>
+      </c>
+      <c r="L42">
+        <v>28</v>
+      </c>
+      <c r="M42">
+        <v>31</v>
+      </c>
+      <c r="N42">
+        <v>0.9</v>
+      </c>
+      <c r="O42">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K40">
-        <v>0.008333333333333333</v>
-      </c>
-      <c r="L40">
-        <v>13</v>
-      </c>
-      <c r="M40">
-        <v>17</v>
-      </c>
-      <c r="N40">
-        <v>0.76</v>
-      </c>
-      <c r="O40">
-        <v>0.24</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>1547</v>
+      <c r="K43">
+        <v>0.01128668171557562</v>
+      </c>
+      <c r="L43">
+        <v>35</v>
+      </c>
+      <c r="M43">
+        <v>41</v>
+      </c>
+      <c r="N43">
+        <v>0.85</v>
+      </c>
+      <c r="O43">
+        <v>0.15</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44">
+        <v>0.006572769953051643</v>
+      </c>
+      <c r="L44">
+        <v>21</v>
+      </c>
+      <c r="M44">
+        <v>27</v>
+      </c>
+      <c r="N44">
+        <v>0.78</v>
+      </c>
+      <c r="O44">
+        <v>0.22</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3174</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,100 +43,109 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>stop</t>
+    <t>low</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>help</t>
   </si>
   <si>
     <t>like</t>
@@ -145,16 +154,16 @@
     <t>care</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
@@ -163,16 +172,16 @@
     <t>please</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
   </si>
   <si>
     <t>grocery</t>
@@ -542,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7941176470588235</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9545454545454546</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -661,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7222222222222222</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5993150684931506</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="C5">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D5">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2151162790697674</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -811,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1798941798941799</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -861,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0992063492063492</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,45 +888,69 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>227</v>
+        <v>414</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <v>96</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.1275167785234899</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>130</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M8">
-        <v>22</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,21 +962,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L10">
         <v>22</v>
       </c>
-      <c r="K10">
-        <v>0.8292682926829268</v>
-      </c>
-      <c r="L10">
-        <v>68</v>
-      </c>
       <c r="M10">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -955,12 +988,12 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>0.8103448275862069</v>
@@ -986,16 +1019,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1007,12 +1040,12 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>0.7916666666666666</v>
@@ -1038,16 +1071,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7734375</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1059,21 +1092,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1085,21 +1118,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7421875</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L16">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1111,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7407407407407407</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1137,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7183098591549296</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L18">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1163,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.7075471698113207</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L19">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1189,21 +1222,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.7058823529411765</v>
+        <v>0.675</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1215,21 +1248,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.65625</v>
+        <v>0.675</v>
       </c>
       <c r="L21">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M21">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1241,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6507936507936508</v>
+        <v>0.64</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1267,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6388888888888888</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1293,21 +1326,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6041666666666666</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1319,47 +1352,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L25">
+        <v>57</v>
+      </c>
+      <c r="M25">
+        <v>57</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>37</v>
-      </c>
-      <c r="K25">
-        <v>0.6</v>
-      </c>
-      <c r="L25">
-        <v>30</v>
-      </c>
-      <c r="M25">
-        <v>30</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5531914893617021</v>
+        <v>0.575</v>
       </c>
       <c r="L26">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1371,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5143603133159269</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L27">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1397,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>186</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5106382978723404</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1423,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5058823529411764</v>
+        <v>0.4908616187989556</v>
       </c>
       <c r="L29">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M29">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1449,47 +1482,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5056179775280899</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4444444444444444</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1501,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4440677966101695</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L32">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1527,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>164</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.410958904109589</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1553,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.4</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1579,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.3846153846153846</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1605,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3723849372384937</v>
+        <v>0.390625</v>
       </c>
       <c r="L36">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1631,21 +1664,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>150</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3125</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1657,21 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.05257270693512305</v>
+        <v>0.3221757322175732</v>
       </c>
       <c r="L38">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="M38">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1683,73 +1716,73 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>847</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39">
+        <v>0.2714285714285714</v>
+      </c>
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>51</v>
-      </c>
-      <c r="K39">
-        <v>0.05023923444976076</v>
-      </c>
-      <c r="L39">
-        <v>21</v>
-      </c>
-      <c r="M39">
-        <v>21</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>397</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.04567307692307692</v>
+        <v>0.05060240963855422</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.02996670366259711</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1761,85 +1794,137 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>874</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.01308411214953271</v>
+        <v>0.03691275167785235</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N42">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>2112</v>
+        <v>861</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.01128668171557562</v>
+        <v>0.03440621531631521</v>
       </c>
       <c r="L43">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M43">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N43">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>3066</v>
+        <v>870</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.006572769953051643</v>
+        <v>0.01449953227315248</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N44">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="O44">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3174</v>
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45">
+        <v>0.009351821992905514</v>
+      </c>
+      <c r="L45">
+        <v>29</v>
+      </c>
+      <c r="M45">
+        <v>35</v>
+      </c>
+      <c r="N45">
+        <v>0.83</v>
+      </c>
+      <c r="O45">
+        <v>0.17</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46">
+        <v>0.007509386733416771</v>
+      </c>
+      <c r="L46">
+        <v>24</v>
+      </c>
+      <c r="M46">
+        <v>29</v>
+      </c>
+      <c r="N46">
+        <v>0.83</v>
+      </c>
+      <c r="O46">
+        <v>0.17</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>3172</v>
       </c>
     </row>
   </sheetData>
